--- a/Archhivos de Informe/Diseño del enlace.xlsx
+++ b/Archhivos de Informe/Diseño del enlace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="27795" windowHeight="8265"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="27795" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t xml:space="preserve">Gr </t>
   </si>
@@ -85,13 +85,118 @@
   </si>
   <si>
     <t>Alvarion BreezeNET B10</t>
+  </si>
+  <si>
+    <t>CBX</t>
+  </si>
+  <si>
+    <t>UBX</t>
+  </si>
+  <si>
+    <t>HackRF One -10 a 0</t>
+  </si>
+  <si>
+    <t>LMH2110 medidor de potencia</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>https://www.robotshop.com/media/files/content/s/spa/pdf/hackrf-one-software-defined-radio-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>Antenas:</t>
+  </si>
+  <si>
+    <t>https://www.lanprosa.com/en/antenas-58-ghz/1226-antena-sectorial-doble-pol-90-5-ghz-mimo-17-dbi.html</t>
+  </si>
+  <si>
+    <t>https://www.olifantasia.com/gnuradio/usrp/files/datasheets/ds_n200series.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ettus.com/content/files/07495_Ettus_N200-210_DS_Flyer_HR_1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.lanprosa.com/en/antenas-58-ghz/769-rocket-dish-antena-ligera-de-30-dbi.html</t>
+  </si>
+  <si>
+    <t>Rocket Dish Antena Ligera  5.1 - 5.8 GHz ($150)</t>
+  </si>
+  <si>
+    <t>Antena Sector AirMax 4.90-5.85 GHz. ($104)</t>
+  </si>
+  <si>
+    <t>UBIQUITI Antena Omni 5.1-5.8 ghz ($51)</t>
+  </si>
+  <si>
+    <t>https://www.lanprosa.com/en/antennas-58-ghz/123-ubiquiti-antena-omni-51-58-ghz-6dbi.html</t>
+  </si>
+  <si>
+    <t>UBIQUITI Antena AirMax Omni  4.9 - 5.8 GHz. ($127)</t>
+  </si>
+  <si>
+    <t>https://www.lanprosa.com/en/antennas-58-ghz/33-ubiquiti-antena-5ghz-airmax-omni-10dbi-rocket-k.html</t>
+  </si>
+  <si>
+    <t>Antena Grid   5.7 GHz a 5.8 GHz ($73)</t>
+  </si>
+  <si>
+    <t>https://www.lanprosa.com/en/antennas-58-ghz/157-antena-grid-30-dbi-nh.html</t>
+  </si>
+  <si>
+    <t>Antena Omni Ubiquiti airMAX 5.45 - 5.85 GHz (7840)</t>
+  </si>
+  <si>
+    <t>https://www.cqnetcr.com/antenas/antena-omni-ubiquiti-airmax-amo-5g13-13-dbi-5-ghz.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ettus Research </t>
+  </si>
+  <si>
+    <t>USRP N210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HackRF One </t>
+  </si>
+  <si>
+    <t>Perdidas del cable Rx</t>
+  </si>
+  <si>
+    <t>Perdidas del cable Tx</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>PEL 1 km</t>
+  </si>
+  <si>
+    <t>Alluvia 1 km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEL 3 km </t>
+  </si>
+  <si>
+    <t>PEL 5 km</t>
+  </si>
+  <si>
+    <t>Alluvia 3 km</t>
+  </si>
+  <si>
+    <t>Alluvia 5 km</t>
+  </si>
+  <si>
+    <t>Margen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +234,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -163,6 +276,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -468,16 +584,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -620,11 +736,11 @@
         <v>24.789000000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:E10" si="0">D$2+D$3+D$4+D$5-B13-D13</f>
+        <f>D$2+D$3+D$4+D$5-B13-D13</f>
         <v>39.789000000000001</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E10" si="1">E$2+E$3+E$4+E$5-B13-D13</f>
+        <f>E$2+E$3+E$4+E$5-B13-D13</f>
         <v>18.789000000000001</v>
       </c>
     </row>
@@ -641,11 +757,11 @@
         <v>19.630000000000003</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>D$2+D$3+D$4+D$5-B14-D14</f>
         <v>34.630000000000003</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>E$2+E$3+E$4+E$5-B14-D14</f>
         <v>13.630000000000003</v>
       </c>
     </row>
@@ -706,12 +822,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>-10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>1.1514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>2.4609999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>-40</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>107.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>116.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>121.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>1.1514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>2.4609999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <f>C$2-D$6+C17-D$8-D$11-D$14+C17-D$7</f>
+        <v>-95.361399999999989</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F22" si="0">C$3-D$6+C17-D$8-D$11-D$14+C17-D$7</f>
+        <v>-73.361399999999989</v>
+      </c>
+      <c r="G17">
+        <f>C$4-D$6+C17-D$8-D$11-D$14+C17-D$7</f>
+        <v>-77.361399999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <f>C$2-D$6+C18-D$8-D$11-D$14+C18-D$7</f>
+        <v>-69.361399999999989</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-47.361399999999989</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G22" si="1">C$4-D$6+C18-D$8-D$11-D$14+C18-D$7</f>
+        <v>-51.361399999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E22" si="2">C$2-D$6+C19-D$8-D$11-D$14+C19-D$7</f>
+        <v>-117.36139999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-95.361399999999989</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-99.361399999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>-109.36139999999999</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-87.361399999999989</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-91.361399999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>-69.361399999999989</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-47.361399999999989</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-51.361399999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>-103.36139999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-81.361399999999989</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-85.361399999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D19" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Archhivos de Informe/Diseño del enlace.xlsx
+++ b/Archhivos de Informe/Diseño del enlace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="27795" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="20070" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t xml:space="preserve">Gr </t>
   </si>
@@ -168,9 +168,6 @@
     <t>Perdidas del cable Tx</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>PEL 1 km</t>
   </si>
   <si>
@@ -190,6 +187,15 @@
   </si>
   <si>
     <t>Margen</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Sx @ BW 200MHz</t>
+  </si>
+  <si>
+    <t>RX_Sens(dBm) = –174(dBm) + 10*LOG[BW(Hz)] + NF(dB) + S/N(dB)</t>
   </si>
 </sst>
 </file>
@@ -824,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +841,7 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -845,6 +852,12 @@
       <c r="D1" t="s">
         <v>28</v>
       </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -859,8 +872,8 @@
       <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
+      <c r="F2">
+        <v>-75</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -876,11 +889,11 @@
       <c r="D3">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
+      <c r="F3">
+        <v>-77.239999999999995</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
@@ -902,11 +915,11 @@
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>50</v>
+      <c r="F4">
+        <v>-77</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
@@ -950,7 +963,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>107.21</v>
@@ -958,7 +971,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>116.75</v>
@@ -966,7 +979,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>121.19</v>
@@ -974,7 +987,7 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>1.1514</v>
@@ -982,7 +995,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>2.4609999999999999</v>
@@ -990,7 +1003,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>3.18</v>
@@ -998,7 +1011,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1017,8 +1030,17 @@
       <c r="G16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>36</v>
       </c>
@@ -1040,8 +1062,17 @@
         <f>C$4-D$6+C17-D$8-D$11-D$14+C17-D$7</f>
         <v>-77.361399999999989</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1.6</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -1063,8 +1094,17 @@
         <f t="shared" ref="G18:G22" si="1">C$4-D$6+C18-D$8-D$11-D$14+C18-D$7</f>
         <v>-51.361399999999989</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>35</v>
+      </c>
+      <c r="I18">
+        <v>410</v>
+      </c>
+      <c r="J18">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -1086,8 +1126,17 @@
         <f t="shared" si="1"/>
         <v>-99.361399999999989</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19">
+        <v>1.6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1109,8 +1158,17 @@
         <f t="shared" si="1"/>
         <v>-91.361399999999989</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1132,8 +1190,17 @@
         <f t="shared" si="1"/>
         <v>-51.361399999999989</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>35</v>
+      </c>
+      <c r="I21">
+        <v>410</v>
+      </c>
+      <c r="J21">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>43</v>
       </c>
@@ -1154,6 +1221,15 @@
       <c r="G22">
         <f t="shared" si="1"/>
         <v>-85.361399999999989</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>
@@ -1161,6 +1237,8 @@
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="D19" r:id="rId2"/>
     <hyperlink ref="D20" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
